--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1882052.791976074</v>
+        <v>1840229.010307067</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584668</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -715,13 +715,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
+        <v>228.0699716369244</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>78.2008536957747</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9286490126096</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.0275780651082</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14.59515906968671</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>190.167558667311</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>30.24678523090114</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>28.14326276152196</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>196.4321170760517</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>169.8718487447255</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>297.3147356426186</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6088509072825</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>7.470667384472012</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2653461765491</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.0311578398786</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>44.28569134876506</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>35.8220561203464</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>85.50129172214159</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.9705324835873</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>150.6847227126469</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>128.3004358894269</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>75.26338848682894</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.456834824088546</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>46.57608071844621</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>228.4010902861368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>16.60419956430028</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>194.3054190523531</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>96.26757873844551</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>39.20016491933343</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.6938511001826</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.781652662641467</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>18.6662983232193</v>
+        <v>81.85050390350975</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.93784657305899</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>70.48633311208273</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>93.98149908494783</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>362.4150396299759</v>
       </c>
       <c r="D26" t="n">
-        <v>324.7801585504183</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>17.93784657305899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>115.927487311963</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.9357482121867</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>364.024458873444</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>48.03449515358817</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2882,13 +2882,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>91.6867458199809</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2930,7 +2930,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>102.5632849648791</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>106.0230335053979</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>61.15426918750896</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>340.822621717325</v>
+        <v>170.8812523743152</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>93.72700595910938</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.41754251185411</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>109.7384251876796</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>347.3669805721897</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>99.14237835397498</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>89.95330195436217</v>
       </c>
       <c r="C36" t="n">
-        <v>52.2874443591984</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
@@ -3468,28 +3468,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.781652662641467</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>43.0321874990911</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>373.5963166213547</v>
+        <v>316.0117723937263</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3584,22 +3584,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>34.31317680226943</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>13.63855752214142</v>
+        <v>201.6576473668871</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>20.32185733949051</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>200.2764367340754</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S42" t="n">
-        <v>89.18211739820566</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3878,7 +3878,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.0505988329835</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>101.5289465722275</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.263881306543801</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>203.876604123005</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -4112,7 +4112,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>141.4919670529479</v>
+        <v>155.3339469632455</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.2591398496932</v>
+        <v>173.289412144823</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4354,19 +4354,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7447050367114</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W2" t="n">
         <v>53.75394372784808</v>
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>830.7958938817376</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="7">
@@ -4707,25 +4707,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>584.5057085574531</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>315.6850394389064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>72.23626279480629</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1041.491250111708</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C11" t="n">
-        <v>1041.491250111708</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D11" t="n">
-        <v>1041.491250111708</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.491250111708</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5044,10 +5044,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5071,22 +5071,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T11" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U11" t="n">
-        <v>2098.788550986472</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.725663642902</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W11" t="n">
-        <v>1414.957008372787</v>
+        <v>1165.226293373596</v>
       </c>
       <c r="X11" t="n">
-        <v>1041.491250111708</v>
+        <v>791.7605351125167</v>
       </c>
       <c r="Y11" t="n">
-        <v>1041.491250111708</v>
+        <v>791.7605351125167</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>850.8043343374655</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C12" t="n">
-        <v>676.3513050563386</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D12" t="n">
-        <v>527.4168953950873</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E12" t="n">
-        <v>368.1794403896317</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5135,37 +5135,37 @@
         <v>1700.568096156132</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.528760559709</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>1983.986062613739</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U12" t="n">
-        <v>1755.805598267897</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V12" t="n">
-        <v>1520.653490036154</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W12" t="n">
-        <v>1266.416133307952</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X12" t="n">
-        <v>1058.56463310242</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.8043343374655</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249.207965794304</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="C13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5229,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>477.1975166923213</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>477.1975166923213</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V13" t="n">
-        <v>477.1975166923213</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W13" t="n">
-        <v>477.1975166923213</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X13" t="n">
-        <v>249.207965794304</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y13" t="n">
-        <v>249.207965794304</v>
+        <v>63.90293997634646</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.761180647701</v>
+        <v>920.8856903127762</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.761180647701</v>
+        <v>920.8856903127762</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.761180647701</v>
+        <v>920.8856903127762</v>
       </c>
       <c r="E14" t="n">
-        <v>1369.761180647701</v>
+        <v>920.8856903127762</v>
       </c>
       <c r="F14" t="n">
-        <v>958.7752758580937</v>
+        <v>509.8997855231686</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>91.62801800605348</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.963399967084</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V14" t="n">
-        <v>1759.900512623513</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.900512623513</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="X14" t="n">
-        <v>1759.900512623513</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="Y14" t="n">
-        <v>1369.761180647701</v>
+        <v>1307.485530376898</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>735.3105217676085</v>
+        <v>850.313229300958</v>
       </c>
       <c r="C15" t="n">
-        <v>560.8574924864815</v>
+        <v>675.860200019831</v>
       </c>
       <c r="D15" t="n">
-        <v>411.9230828252303</v>
+        <v>526.9257903585798</v>
       </c>
       <c r="E15" t="n">
-        <v>252.6856278197748</v>
+        <v>367.6883353531243</v>
       </c>
       <c r="F15" t="n">
-        <v>252.6856278197748</v>
+        <v>221.1537773800092</v>
       </c>
       <c r="G15" t="n">
-        <v>114.6107419524668</v>
+        <v>83.07889151270129</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5387,22 +5387,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2036.70758706395</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1808.527122718107</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V15" t="n">
-        <v>1573.375014486365</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W15" t="n">
-        <v>1319.137657758163</v>
+        <v>1434.140365291513</v>
       </c>
       <c r="X15" t="n">
-        <v>1111.28615755263</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y15" t="n">
-        <v>903.5258587876765</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.7849439395547</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="C16" t="n">
-        <v>193.7849439395547</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="D16" t="n">
-        <v>193.7849439395547</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="E16" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
         <v>46.89499644164432</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>414.5775230830848</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.7849439395547</v>
+        <v>158.9864433947628</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1286.788427385932</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="C17" t="n">
-        <v>917.8259104455205</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D17" t="n">
-        <v>917.8259104455205</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E17" t="n">
-        <v>788.2295105572106</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F17" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5515,13 +5515,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5542,25 +5542,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2050.393517622824</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U17" t="n">
-        <v>2050.393517622824</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V17" t="n">
-        <v>2050.393517622824</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W17" t="n">
-        <v>2050.393517622824</v>
+        <v>2011.157539395051</v>
       </c>
       <c r="X17" t="n">
-        <v>1676.927759361744</v>
+        <v>2011.157539395051</v>
       </c>
       <c r="Y17" t="n">
-        <v>1286.788427385932</v>
+        <v>1621.018207419239</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>676.0544483625931</v>
+        <v>774.6289167208359</v>
       </c>
       <c r="C18" t="n">
-        <v>501.6014190814661</v>
+        <v>600.175887439709</v>
       </c>
       <c r="D18" t="n">
-        <v>352.6670094202149</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="E18" t="n">
-        <v>193.4295544147594</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
         <v>46.89499644164432</v>
@@ -5594,52 +5594,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2338.227766704349</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2176.994211604904</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1977.451513658935</v>
+        <v>2076.025982017178</v>
       </c>
       <c r="U18" t="n">
-        <v>1749.271049313092</v>
+        <v>1847.845517671335</v>
       </c>
       <c r="V18" t="n">
-        <v>1514.118941081349</v>
+        <v>1612.693409439592</v>
       </c>
       <c r="W18" t="n">
-        <v>1259.881584353148</v>
+        <v>1358.456052711391</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.030084147615</v>
+        <v>1150.604552505858</v>
       </c>
       <c r="Y18" t="n">
-        <v>844.2697853826612</v>
+        <v>942.8442537409039</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5694,28 +5694,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1185.109116778414</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="C20" t="n">
-        <v>816.1465998380024</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="D20" t="n">
-        <v>457.8809012312519</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8809012312519</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2148.481722029334</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>2148.481722029334</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>1817.418834685764</v>
       </c>
       <c r="W20" t="n">
-        <v>1282.349095302096</v>
+        <v>1817.418834685764</v>
       </c>
       <c r="X20" t="n">
-        <v>1185.109116778414</v>
+        <v>1817.418834685764</v>
       </c>
       <c r="Y20" t="n">
-        <v>1185.109116778414</v>
+        <v>1427.279502709952</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>680.7073555380667</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C21" t="n">
-        <v>506.2543262569397</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D21" t="n">
-        <v>506.2543262569397</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H21" t="n">
         <v>114.6107419524668</v>
@@ -5831,13 +5831,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
         <v>974.4476973832902</v>
@@ -5858,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2244.709957115726</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2045.167259169757</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1816.986794823915</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y21" t="n">
-        <v>848.9226925581347</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5931,19 +5931,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>563.9745635376357</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T22" t="n">
-        <v>336.0761416957212</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U22" t="n">
-        <v>46.89499644164432</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="V22" t="n">
         <v>46.89499644164432</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>754.3641511654841</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="C23" t="n">
-        <v>754.3641511654841</v>
+        <v>818.1865810445654</v>
       </c>
       <c r="D23" t="n">
-        <v>396.0984525587336</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="E23" t="n">
-        <v>396.0984525587336</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="F23" t="n">
-        <v>396.0984525587336</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="G23" t="n">
-        <v>396.0984525587336</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="H23" t="n">
-        <v>65.74984323277494</v>
+        <v>129.5722731118562</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U23" t="n">
-        <v>1867.1984047608</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V23" t="n">
-        <v>1867.1984047608</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W23" t="n">
-        <v>1514.429749490686</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="X23" t="n">
-        <v>1140.963991229606</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="Y23" t="n">
-        <v>1140.963991229606</v>
+        <v>1187.149097984977</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.2290650326996</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>597.7760357515726</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>597.7760357515726</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
         <v>46.89499644164432</v>
@@ -6068,22 +6068,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P24" t="n">
         <v>2193.291384540003</v>
@@ -6101,19 +6101,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.0933127164754</v>
+        <v>512.8377662797973</v>
       </c>
       <c r="C25" t="n">
-        <v>118.0933127164754</v>
+        <v>343.9015833518904</v>
       </c>
       <c r="D25" t="n">
-        <v>118.0933127164754</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F25" t="n">
         <v>46.89499644164432</v>
@@ -6168,31 +6168,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>338.8858918600055</v>
+        <v>512.8377662797973</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.0933127164754</v>
+        <v>512.8377662797973</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>793.2275301713032</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C26" t="n">
-        <v>793.2275301713032</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D26" t="n">
-        <v>465.1667639587595</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E26" t="n">
-        <v>465.1667639587595</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F26" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6226,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1536.135517417229</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1183.366862147115</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>1183.366862147115</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y26" t="n">
-        <v>793.2275301713032</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>790.3481019751835</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>615.8950726940565</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>438.5385807461172</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6308,22 +6308,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6408,25 +6408,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>336.3121664786049</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U28" t="n">
-        <v>336.3121664786049</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V28" t="n">
-        <v>336.3121664786049</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W28" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X28" t="n">
-        <v>46.89499644164432</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="Y28" t="n">
         <v>46.89499644164432</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1209.220715163754</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C29" t="n">
-        <v>1209.220715163754</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="D29" t="n">
-        <v>850.9550165570038</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1667639587595</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="F29" t="n">
-        <v>465.1667639587595</v>
+        <v>414.5964700511838</v>
       </c>
       <c r="G29" t="n">
         <v>46.89499644164432</v>
@@ -6463,16 +6463,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2296.230130007885</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2113.035017145861</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1893.052257777439</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1893.052257777439</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1561.989370433868</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>1209.220715163754</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X29" t="n">
-        <v>1209.220715163754</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y29" t="n">
-        <v>1209.220715163754</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072816</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>139.5078710072816</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5078710072816</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6542,52 +6542,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>215.8311793695513</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>500.6746001985346</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6642,31 +6642,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>277.6031684478431</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>215.8311793695513</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.8311793695513</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>925.461369207341</v>
+        <v>630.4882268618733</v>
       </c>
       <c r="C32" t="n">
-        <v>556.4988522669294</v>
+        <v>630.4882268618733</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2335778049849</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2335778049849</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
         <v>762.591673824455</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T32" t="n">
-        <v>2270.376276991246</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U32" t="n">
-        <v>2016.589854876113</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V32" t="n">
-        <v>1685.526967532543</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W32" t="n">
-        <v>1685.526967532543</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="X32" t="n">
-        <v>1312.061209271463</v>
+        <v>630.4882268618733</v>
       </c>
       <c r="Y32" t="n">
-        <v>1312.061209271463</v>
+        <v>630.4882268618733</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>735.3105217676085</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>560.8574924864815</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>411.9230828252303</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>252.6856278197748</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>252.6856278197748</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6809,22 +6809,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1111.28615755263</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>903.5258587876765</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>125.0945343324061</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>125.0945343324061</v>
       </c>
       <c r="D34" t="n">
         <v>46.89499644164432</v>
@@ -6879,31 +6879,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>125.0945343324061</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>125.0945343324061</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1542.980280095866</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C35" t="n">
-        <v>1174.017763155455</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D35" t="n">
-        <v>1174.017763155455</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="E35" t="n">
-        <v>788.2295105572106</v>
+        <v>808.7566391829587</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>397.7707343933511</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6943,7 +6943,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2170.232460472079</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2170.232460472079</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1916.446038356946</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.446038356946</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1916.446038356946</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>1542.980280095866</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y35" t="n">
-        <v>1542.980280095866</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C36" t="n">
-        <v>569.3171645922887</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D36" t="n">
-        <v>420.3827549310374</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E36" t="n">
-        <v>261.1452999255819</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6107419524668</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7040,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="37">
@@ -7116,25 +7116,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>336.0761416957212</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="U37" t="n">
-        <v>46.89499644164432</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="V37" t="n">
-        <v>46.89499644164432</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X37" t="n">
         <v>46.89499644164432</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.857513382056</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7174,7 +7174,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
         <v>392.9020949275675</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.135517417229</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>1183.366862147115</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X38" t="n">
-        <v>1183.366862147115</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y38" t="n">
-        <v>793.2275301713032</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C39" t="n">
-        <v>587.4729904073685</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D39" t="n">
-        <v>438.5385807461172</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E39" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F39" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7253,52 +7253,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7353,31 +7353,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>350.0884872080407</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T40" t="n">
-        <v>336.3121664786049</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="U40" t="n">
-        <v>336.3121664786049</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="V40" t="n">
-        <v>336.3121664786049</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>774.1232119888066</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="C41" t="n">
-        <v>405.1606950483948</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="D41" t="n">
-        <v>46.89499644164432</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2324.222693456468</v>
       </c>
       <c r="T41" t="n">
-        <v>2050.393517622824</v>
+        <v>2324.222693456468</v>
       </c>
       <c r="U41" t="n">
-        <v>1848.094086578303</v>
+        <v>2324.222693456468</v>
       </c>
       <c r="V41" t="n">
-        <v>1517.031199234732</v>
+        <v>2324.222693456468</v>
       </c>
       <c r="W41" t="n">
-        <v>1164.262543964618</v>
+        <v>2324.222693456468</v>
       </c>
       <c r="X41" t="n">
-        <v>1164.262543964618</v>
+        <v>1950.756935195388</v>
       </c>
       <c r="Y41" t="n">
-        <v>774.1232119888066</v>
+        <v>1560.617603219576</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S42" t="n">
-        <v>2254.666875215342</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T42" t="n">
-        <v>2055.124177269372</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U42" t="n">
-        <v>1826.94371292353</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.1358488716803</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C43" t="n">
-        <v>385.1358488716803</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D43" t="n">
-        <v>385.1358488716803</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E43" t="n">
-        <v>385.1358488716803</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F43" t="n">
-        <v>238.24590137377</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G43" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7590,31 +7590,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>566.78431370192</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V43" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="W43" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X43" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y43" t="n">
-        <v>566.78431370192</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>621.7934771426671</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="C44" t="n">
-        <v>252.8309602022554</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="D44" t="n">
-        <v>252.8309602022554</v>
+        <v>1376.146810252357</v>
       </c>
       <c r="E44" t="n">
-        <v>252.8309602022554</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F44" t="n">
-        <v>252.8309602022554</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2124.767062713795</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U44" t="n">
-        <v>2124.767062713795</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V44" t="n">
-        <v>2124.767062713795</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W44" t="n">
-        <v>1771.99840744368</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="X44" t="n">
-        <v>1398.532649182601</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="Y44" t="n">
-        <v>1008.393317206789</v>
+        <v>1734.412508859107</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>707.3920504595965</v>
+        <v>693.4102525704071</v>
       </c>
       <c r="C45" t="n">
-        <v>707.3920504595965</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="D45" t="n">
-        <v>558.4576407983452</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E45" t="n">
-        <v>399.2201857928898</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F45" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7727,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7760,19 +7760,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1780.608651410095</v>
+        <v>1766.626853520906</v>
       </c>
       <c r="V45" t="n">
-        <v>1545.456543178353</v>
+        <v>1531.474745289163</v>
       </c>
       <c r="W45" t="n">
-        <v>1291.219186450151</v>
+        <v>1277.237388560962</v>
       </c>
       <c r="X45" t="n">
-        <v>1083.367686244618</v>
+        <v>1069.385888355429</v>
       </c>
       <c r="Y45" t="n">
-        <v>875.6073874796646</v>
+        <v>861.6255895904751</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>193.7849439395547</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C46" t="n">
-        <v>193.7849439395547</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D46" t="n">
-        <v>193.7849439395547</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E46" t="n">
-        <v>193.7849439395547</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -7833,25 +7833,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U46" t="n">
-        <v>414.5775230830848</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="V46" t="n">
-        <v>414.5775230830848</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="W46" t="n">
-        <v>414.5775230830848</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X46" t="n">
-        <v>414.5775230830848</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.7849439395547</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,10 +8312,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>309.749325445695</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356325</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,10 +9956,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
-        <v>214.8846069991544</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998491</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488642</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>81.3767091492557</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>51.92623307479437</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01236864116765446</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.0766035820376</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>150.4089569992727</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -23439,7 +23439,7 @@
         <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>96.35409144694634</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.057892002065387</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>282.759431883934</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>70.14174293906302</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>112.045979244368</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>35.46343016298188</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>63.84414551629362</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>253.6299341828349</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>273.9775802305841</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.38246657340287</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>150.9711902480634</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23946,19 +23946,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>23.73655303769118</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>201.9804537877945</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>23.47751272238438</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>273.4635219400235</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>120.4210546291168</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.98884467712179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>150.0327029135238</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>137.0211079515447</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>145.0188972264879</v>
+        <v>81.83469164619743</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>148.5953370768083</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.94762953448644</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24417,7 +24417,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>131.7281563040893</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>2.857852141031628</v>
       </c>
       <c r="D26" t="n">
-        <v>29.90288307026469</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>129.5072189915797</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24648,13 +24648,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>109.6919503115324</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>114.6489051399081</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>50.06459096849994</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>25.59531448647296</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.27705323942853</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>130.2373021845462</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>42.59243951281444</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24894,7 +24894,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>164.5553862015282</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>13.86041990335798</v>
+        <v>183.8017892463678</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -24937,7 +24937,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>112.0459792443681</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>71.19793050635825</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>115.8810124358158</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>66.72206926975423</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>82.22078337942887</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>76.57988169550516</v>
       </c>
       <c r="C36" t="n">
-        <v>120.4210546291173</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>211.747215566299</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>182.5872501244043</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.137525042125901</v>
+        <v>66.72206926975429</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>138.3953221860463</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>211.980880101354</v>
+        <v>23.96179025660828</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>161.0413043939133</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>50.97212115990584</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S42" t="n">
-        <v>70.43910215024454</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>135.3959620179721</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288915</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25842,10 +25842,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>150.6086967516005</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>377.666488765718</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>210.212445718939</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>84.40669264943639</v>
+        <v>70.56471273913883</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26073,13 +26073,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>95.03019395184293</v>
+        <v>112.9999216567131</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>585918.5274809948</v>
+        <v>585918.527480995</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>585918.5274809949</v>
+        <v>585918.5274809948</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>585918.5274809949</v>
+        <v>585918.5274809948</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>585918.527480995</v>
+        <v>585918.5274809947</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>585918.5274809949</v>
+        <v>585918.527480995</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>585918.5274809949</v>
+        <v>585918.5274809948</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>585918.5274809949</v>
+        <v>585918.5274809948</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>585918.5274809947</v>
+        <v>585918.5274809949</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>356907.7346816904</v>
+        <v>356907.7346816905</v>
       </c>
       <c r="F2" t="n">
+        <v>356907.7346816905</v>
+      </c>
+      <c r="G2" t="n">
         <v>356907.7346816906</v>
-      </c>
-      <c r="G2" t="n">
-        <v>356907.7346816905</v>
       </c>
       <c r="H2" t="n">
         <v>356907.7346816905</v>
       </c>
       <c r="I2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816904</v>
       </c>
       <c r="J2" t="n">
         <v>356907.7346816905</v>
       </c>
       <c r="K2" t="n">
-        <v>356907.7346816904</v>
+        <v>356907.7346816905</v>
       </c>
       <c r="L2" t="n">
         <v>356907.7346816905</v>
@@ -26349,10 +26349,10 @@
         <v>356907.7346816905</v>
       </c>
       <c r="N2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816904</v>
       </c>
       <c r="O2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816906</v>
       </c>
       <c r="P2" t="n">
         <v>356907.7346816904</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007597</v>
+        <v>86018.53382007599</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129292.2770876418</v>
+        <v>129292.2770876416</v>
       </c>
       <c r="C6" t="n">
+        <v>210061.7086191896</v>
+      </c>
+      <c r="D6" t="n">
         <v>210061.7086191895</v>
       </c>
-      <c r="D6" t="n">
-        <v>210061.708619189</v>
-      </c>
       <c r="E6" t="n">
-        <v>-48881.39359636195</v>
+        <v>-56188.63285475815</v>
       </c>
       <c r="F6" t="n">
-        <v>296730.949182591</v>
+        <v>289423.7099241946</v>
       </c>
       <c r="G6" t="n">
-        <v>296730.9491825909</v>
+        <v>289423.7099241947</v>
       </c>
       <c r="H6" t="n">
-        <v>296730.9491825909</v>
+        <v>289423.7099241946</v>
       </c>
       <c r="I6" t="n">
-        <v>296730.9491825909</v>
+        <v>289423.7099241945</v>
       </c>
       <c r="J6" t="n">
-        <v>233671.0065834846</v>
+        <v>226363.7673250884</v>
       </c>
       <c r="K6" t="n">
-        <v>296730.9491825908</v>
+        <v>289423.7099241946</v>
       </c>
       <c r="L6" t="n">
-        <v>296730.9491825909</v>
+        <v>289423.7099241946</v>
       </c>
       <c r="M6" t="n">
-        <v>210712.4153625148</v>
+        <v>203405.1761041186</v>
       </c>
       <c r="N6" t="n">
-        <v>296730.9491825909</v>
+        <v>289423.7099241945</v>
       </c>
       <c r="O6" t="n">
-        <v>296730.9491825909</v>
+        <v>289423.7099241947</v>
       </c>
       <c r="P6" t="n">
-        <v>296730.9491825908</v>
+        <v>289423.7099241945</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
+        <v>301.9048087062787</v>
+      </c>
+      <c r="H3" t="n">
         <v>301.9048087062786</v>
-      </c>
-      <c r="H3" t="n">
-        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428948</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>23.27568127091209</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>271.0401150216383</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>68.23607968221197</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>189.8484676766033</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>130.4740533236972</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>61.52742449360861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>131.0571773754</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>339.4843154475679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,16 +27946,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>109.2002544016887</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27994,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>55.26286608486788</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -32232,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32253,22 +32253,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32323,25 +32323,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,7 +35023,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L15" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35898,13 +35898,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35974,16 +35974,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>332.1534122685986</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N21" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36445,7 +36445,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
         <v>516.8936174628016</v>
@@ -36454,7 +36454,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595472</v>
       </c>
       <c r="Q24" t="n">
         <v>152.98832074971</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
-        <v>217.3283173608305</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
@@ -36694,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36928,10 +36928,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>231.4844522093428</v>
@@ -37633,16 +37633,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37867,7 +37867,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -37876,10 +37876,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
@@ -38113,10 +38113,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
